--- a/input/cursos.xlsx
+++ b/input/cursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacLeod/Playground/chorario/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8327DC-4BE8-FF4A-8D33-1AD98962663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E71D97F-94AF-D249-8902-96DA3A47E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$268</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -902,17 +902,9 @@
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.33203125" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/input/cursos.xlsx
+++ b/input/cursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MacLeod/Playground/chorario/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E71D97F-94AF-D249-8902-96DA3A47E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D798533-087D-9840-B7A8-0C7AD126FB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="18">
   <si>
     <t>TITULO</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>R</t>
@@ -909,16 +906,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -935,10 +932,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>774</v>
+        <v>1037</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>915</v>
@@ -946,28 +943,22 @@
       <c r="D2">
         <v>1044</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>774</v>
+        <v>1037</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>915</v>
       </c>
       <c r="D3">
-        <v>1129</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -975,10 +966,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>783</v>
+        <v>1041</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>700</v>
@@ -986,19 +977,16 @@
       <c r="D4">
         <v>829</v>
       </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>783</v>
+        <v>1041</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1006,28 +994,22 @@
       <c r="D5">
         <v>1129</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>790</v>
+        <v>1043</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>915</v>
       </c>
       <c r="D6">
-        <v>1129</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1035,19 +1017,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>790</v>
+        <v>1043</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>700</v>
+        <v>1130</v>
       </c>
       <c r="D7">
-        <v>829</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1055,19 +1034,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>793</v>
+        <v>1048</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D8">
-        <v>1129</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1075,7 +1051,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>793</v>
+        <v>1048</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1086,28 +1062,22 @@
       <c r="D9">
         <v>1044</v>
       </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>795</v>
+        <v>1050</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1045</v>
+        <v>915</v>
       </c>
       <c r="D10">
-        <v>1214</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1115,19 +1085,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>795</v>
+        <v>1050</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>700</v>
+        <v>915</v>
       </c>
       <c r="D11">
-        <v>829</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1135,19 +1102,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>803</v>
+        <v>1057</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>1045</v>
+        <v>700</v>
       </c>
       <c r="D12">
-        <v>1214</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -1155,19 +1119,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>803</v>
+        <v>1057</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D13">
-        <v>1944</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -1175,19 +1136,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>809</v>
+        <v>1061</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D14">
-        <v>1944</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -1195,19 +1153,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>809</v>
+        <v>1061</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>1815</v>
+        <v>830</v>
       </c>
       <c r="D15">
-        <v>1944</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -1215,19 +1170,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>812</v>
+        <v>1063</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D16">
-        <v>1944</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -1235,19 +1187,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>812</v>
+        <v>1063</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D17">
-        <v>1944</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -1255,19 +1204,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>1066</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>700</v>
+      </c>
+      <c r="D18">
         <v>829</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>1815</v>
-      </c>
-      <c r="D18">
-        <v>1944</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -1275,19 +1221,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>1066</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>700</v>
+      </c>
+      <c r="D19">
         <v>829</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>1815</v>
-      </c>
-      <c r="D19">
-        <v>1944</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1295,19 +1238,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>838</v>
+        <v>1067</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D20">
-        <v>1944</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1315,19 +1255,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>838</v>
+        <v>1067</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>1815</v>
+        <v>915</v>
       </c>
       <c r="D21">
-        <v>1944</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -1335,19 +1272,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>842</v>
+        <v>1070</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D22">
-        <v>2159</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -1355,19 +1289,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>842</v>
+        <v>1070</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D23">
-        <v>1944</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -1375,19 +1306,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>848</v>
+        <v>1071</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D24">
-        <v>2159</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -1395,19 +1323,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>848</v>
+        <v>1071</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>2030</v>
+        <v>1215</v>
       </c>
       <c r="D25">
-        <v>2159</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
+        <v>1344</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -1415,19 +1340,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>853</v>
+        <v>1074</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D26">
-        <v>2159</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -1435,19 +1357,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>853</v>
+        <v>1074</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D27">
-        <v>2159</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -1455,19 +1374,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>859</v>
+        <v>1076</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>1515</v>
+        <v>1130</v>
       </c>
       <c r="D28">
-        <v>1644</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -1475,19 +1391,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>859</v>
+        <v>1076</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>1515</v>
+        <v>1215</v>
       </c>
       <c r="D29">
-        <v>1644</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
+        <v>1344</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
@@ -1495,90 +1408,78 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>953</v>
+        <v>1082</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>830</v>
+        <v>1345</v>
       </c>
       <c r="D30">
-        <v>959</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
+        <v>1514</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>953</v>
+        <v>1082</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31">
-        <v>1000</v>
+        <v>1515</v>
       </c>
       <c r="D31">
-        <v>1129</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
+        <v>1644</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1037</v>
+        <v>1091</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>915</v>
+        <v>1600</v>
       </c>
       <c r="D32">
-        <v>1044</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
+        <v>1729</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1037</v>
+        <v>1091</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>915</v>
+        <v>1645</v>
       </c>
       <c r="D33">
-        <v>1044</v>
-      </c>
-      <c r="G33" t="s">
-        <v>6</v>
+        <v>1814</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1041</v>
+        <v>10984</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>700</v>
@@ -1586,119 +1487,101 @@
       <c r="D34">
         <v>829</v>
       </c>
-      <c r="G34" t="s">
-        <v>6</v>
-      </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1041</v>
+        <v>10984</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D35">
-        <v>1129</v>
-      </c>
-      <c r="G35" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1043</v>
+        <v>10985</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>1130</v>
+        <v>1215</v>
       </c>
       <c r="D36">
-        <v>1259</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
+        <v>1344</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1043</v>
+        <v>10985</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37">
-        <v>915</v>
+        <v>1215</v>
       </c>
       <c r="D37">
-        <v>1044</v>
-      </c>
-      <c r="G37" t="s">
-        <v>6</v>
+        <v>1344</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1048</v>
+        <v>1100</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>700</v>
+        <v>2030</v>
       </c>
       <c r="D38">
-        <v>829</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1048</v>
+        <v>1100</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>915</v>
+        <v>2030</v>
       </c>
       <c r="D39">
-        <v>1044</v>
-      </c>
-      <c r="G39" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1050</v>
+        <v>1103</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>915</v>
@@ -1706,919 +1589,781 @@
       <c r="D40">
         <v>1044</v>
       </c>
-      <c r="G40" t="s">
-        <v>6</v>
-      </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1050</v>
+        <v>1103</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>915</v>
+        <v>1815</v>
       </c>
       <c r="D41">
-        <v>1044</v>
-      </c>
-      <c r="G41" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1057</v>
+        <v>1105</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>700</v>
+        <v>2030</v>
       </c>
       <c r="D42">
-        <v>829</v>
-      </c>
-      <c r="G42" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1057</v>
+        <v>1105</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>700</v>
+        <v>2030</v>
       </c>
       <c r="D43">
-        <v>829</v>
-      </c>
-      <c r="G43" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1061</v>
+        <v>1107</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D44">
-        <v>829</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1061</v>
+        <v>1107</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>830</v>
+        <v>1815</v>
       </c>
       <c r="D45">
-        <v>959</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1063</v>
+        <v>1110</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>1000</v>
+        <v>2030</v>
       </c>
       <c r="D46">
-        <v>1129</v>
-      </c>
-      <c r="G46" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1063</v>
+        <v>1110</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>700</v>
+        <v>2030</v>
       </c>
       <c r="D47">
-        <v>829</v>
-      </c>
-      <c r="G47" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1066</v>
+        <v>1115</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D48">
-        <v>829</v>
-      </c>
-      <c r="G48" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1066</v>
+        <v>1115</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>700</v>
+        <v>2030</v>
       </c>
       <c r="D49">
-        <v>829</v>
-      </c>
-      <c r="G49" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1067</v>
+        <v>1116</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>915</v>
+        <v>1815</v>
       </c>
       <c r="D50">
-        <v>1044</v>
-      </c>
-      <c r="G50" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1067</v>
+        <v>1116</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>700</v>
+        <v>2030</v>
       </c>
       <c r="D51">
-        <v>829</v>
-      </c>
-      <c r="G51" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1070</v>
+        <v>1119</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>830</v>
+        <v>1815</v>
       </c>
       <c r="D52">
-        <v>959</v>
-      </c>
-      <c r="G52" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1070</v>
+        <v>1119</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>1000</v>
+        <v>2030</v>
       </c>
       <c r="D53">
-        <v>1129</v>
-      </c>
-      <c r="G53" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1071</v>
+        <v>1123</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>1215</v>
+        <v>1815</v>
       </c>
       <c r="D54">
-        <v>1344</v>
-      </c>
-      <c r="G54" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1071</v>
+        <v>1123</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D55">
-        <v>829</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1074</v>
+        <v>1128</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56">
-        <v>830</v>
+        <v>1815</v>
       </c>
       <c r="D56">
-        <v>959</v>
-      </c>
-      <c r="G56" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1074</v>
+        <v>1128</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>830</v>
+        <v>2030</v>
       </c>
       <c r="D57">
-        <v>959</v>
-      </c>
-      <c r="G57" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1076</v>
+        <v>1133</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>1130</v>
+        <v>1815</v>
       </c>
       <c r="D58">
-        <v>1259</v>
-      </c>
-      <c r="G58" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1076</v>
+        <v>1133</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59">
-        <v>1215</v>
+        <v>2030</v>
       </c>
       <c r="D59">
-        <v>1344</v>
-      </c>
-      <c r="G59" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1082</v>
+        <v>1136</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>1345</v>
+        <v>700</v>
       </c>
       <c r="D60">
-        <v>1514</v>
-      </c>
-      <c r="G60" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1082</v>
+        <v>1136</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
       <c r="C61">
-        <v>1515</v>
+        <v>1815</v>
       </c>
       <c r="D61">
-        <v>1644</v>
-      </c>
-      <c r="G61" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1091</v>
+        <v>1142</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62">
-        <v>1645</v>
+        <v>830</v>
       </c>
       <c r="D62">
-        <v>1814</v>
-      </c>
-      <c r="G62" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1091</v>
+        <v>1142</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="D63">
-        <v>1729</v>
-      </c>
-      <c r="G63" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1100</v>
+        <v>1146</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D64">
-        <v>2159</v>
-      </c>
-      <c r="G64" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1100</v>
+        <v>1146</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>2030</v>
+        <v>915</v>
       </c>
       <c r="D65">
-        <v>2159</v>
-      </c>
-      <c r="G65" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1103</v>
+        <v>1148</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D66">
-        <v>1944</v>
-      </c>
-      <c r="G66" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1103</v>
+        <v>1148</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>915</v>
+        <v>1000</v>
       </c>
       <c r="D67">
-        <v>1044</v>
-      </c>
-      <c r="G67" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1105</v>
+        <v>1150</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D68">
-        <v>2159</v>
-      </c>
-      <c r="G68" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1105</v>
+        <v>1150</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>2030</v>
+        <v>1000</v>
       </c>
       <c r="D69">
-        <v>2159</v>
-      </c>
-      <c r="G69" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1107</v>
+        <v>1153</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>1815</v>
+        <v>915</v>
       </c>
       <c r="D70">
-        <v>1944</v>
-      </c>
-      <c r="G70" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1107</v>
+        <v>1153</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D71">
-        <v>1944</v>
-      </c>
-      <c r="G71" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1110</v>
+        <v>1157</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D72">
-        <v>2159</v>
-      </c>
-      <c r="G72" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1110</v>
+        <v>1157</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D73">
-        <v>2159</v>
-      </c>
-      <c r="G73" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1115</v>
+        <v>1186</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D74">
-        <v>2159</v>
-      </c>
-      <c r="G74" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1115</v>
+        <v>1186</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>1815</v>
+        <v>915</v>
       </c>
       <c r="D75">
-        <v>1944</v>
-      </c>
-      <c r="G75" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1116</v>
+        <v>1445</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D76">
-        <v>2159</v>
-      </c>
-      <c r="G76" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1116</v>
+        <v>1445</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>1815</v>
+        <v>830</v>
       </c>
       <c r="D77">
-        <v>1944</v>
-      </c>
-      <c r="G77" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1119</v>
+        <v>1449</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D78">
-        <v>2159</v>
-      </c>
-      <c r="G78" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1119</v>
+        <v>1449</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D79">
-        <v>1944</v>
-      </c>
-      <c r="G79" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1123</v>
+        <v>1452</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D80">
-        <v>1944</v>
-      </c>
-      <c r="G80" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1123</v>
+        <v>1452</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81">
-        <v>1815</v>
+        <v>830</v>
       </c>
       <c r="D81">
-        <v>1944</v>
-      </c>
-      <c r="G81" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1128</v>
+        <v>1454</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C82">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D82">
-        <v>1944</v>
-      </c>
-      <c r="G82" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1128</v>
+        <v>1454</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>2030</v>
+        <v>1000</v>
       </c>
       <c r="D83">
-        <v>2159</v>
-      </c>
-      <c r="G83" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1133</v>
+        <v>1457</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C84">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D84">
-        <v>2159</v>
-      </c>
-      <c r="G84" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1133</v>
+        <v>1457</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D85">
-        <v>1944</v>
-      </c>
-      <c r="G85" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1136</v>
+        <v>1460</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>700</v>
@@ -2626,79 +2371,67 @@
       <c r="D86">
         <v>829</v>
       </c>
-      <c r="G86" t="s">
-        <v>6</v>
-      </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1136</v>
+        <v>1460</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D87">
-        <v>1944</v>
-      </c>
-      <c r="G87" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1142</v>
+        <v>1462</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D88">
-        <v>959</v>
-      </c>
-      <c r="G88" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1142</v>
+        <v>1462</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D89">
-        <v>1129</v>
-      </c>
-      <c r="G89" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1146</v>
+        <v>1465</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90">
         <v>915</v>
@@ -2706,568 +2439,481 @@
       <c r="D90">
         <v>1044</v>
       </c>
-      <c r="G90" t="s">
-        <v>6</v>
-      </c>
       <c r="H90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1146</v>
+        <v>1465</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D91">
-        <v>829</v>
-      </c>
-      <c r="G91" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1148</v>
+        <v>1469</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92">
-        <v>700</v>
+        <v>1345</v>
       </c>
       <c r="D92">
-        <v>829</v>
-      </c>
-      <c r="G92" t="s">
-        <v>6</v>
+        <v>1514</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1148</v>
+        <v>1469</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <v>1000</v>
+        <v>1345</v>
       </c>
       <c r="D93">
-        <v>1129</v>
-      </c>
-      <c r="G93" t="s">
-        <v>6</v>
+        <v>1514</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1150</v>
+        <v>1474</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>700</v>
+        <v>1515</v>
       </c>
       <c r="D94">
-        <v>829</v>
-      </c>
-      <c r="G94" t="s">
-        <v>6</v>
+        <v>1644</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1150</v>
+        <v>1474</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>1000</v>
+        <v>1645</v>
       </c>
       <c r="D95">
-        <v>1129</v>
-      </c>
-      <c r="G95" t="s">
-        <v>6</v>
+        <v>1814</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1153</v>
+        <v>1477</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>915</v>
+        <v>1815</v>
       </c>
       <c r="D96">
-        <v>1044</v>
-      </c>
-      <c r="G96" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1153</v>
+        <v>1477</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D97">
-        <v>1129</v>
-      </c>
-      <c r="G97" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1157</v>
+        <v>1479</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D98">
-        <v>829</v>
-      </c>
-      <c r="G98" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1157</v>
+        <v>1479</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D99">
-        <v>829</v>
-      </c>
-      <c r="G99" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1186</v>
+        <v>1481</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
       <c r="C100">
-        <v>915</v>
+        <v>1815</v>
       </c>
       <c r="D100">
-        <v>1044</v>
-      </c>
-      <c r="G100" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1186</v>
+        <v>1481</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>830</v>
+        <v>2030</v>
       </c>
       <c r="D101">
-        <v>959</v>
-      </c>
-      <c r="G101" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1445</v>
+        <v>1483</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C102">
-        <v>830</v>
+        <v>2030</v>
       </c>
       <c r="D102">
-        <v>959</v>
-      </c>
-      <c r="G102" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1445</v>
+        <v>1483</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>830</v>
+        <v>2030</v>
       </c>
       <c r="D103">
-        <v>959</v>
-      </c>
-      <c r="G103" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1449</v>
+        <v>1484</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C104">
-        <v>700</v>
+        <v>2030</v>
       </c>
       <c r="D104">
-        <v>829</v>
-      </c>
-      <c r="G104" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1449</v>
+        <v>1484</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105">
-        <v>1000</v>
+        <v>2030</v>
       </c>
       <c r="D105">
-        <v>1129</v>
-      </c>
-      <c r="G105" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1452</v>
+        <v>1486</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C106">
-        <v>700</v>
+        <v>915</v>
       </c>
       <c r="D106">
-        <v>829</v>
-      </c>
-      <c r="G106" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1452</v>
+        <v>1486</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C107">
-        <v>830</v>
+        <v>1815</v>
       </c>
       <c r="D107">
-        <v>959</v>
-      </c>
-      <c r="G107" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1454</v>
+        <v>1489</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D108">
-        <v>1129</v>
-      </c>
-      <c r="G108" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1454</v>
+        <v>1489</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D109">
-        <v>829</v>
-      </c>
-      <c r="G109" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1457</v>
+        <v>1496</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D110">
-        <v>829</v>
-      </c>
-      <c r="G110" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1457</v>
+        <v>1496</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>700</v>
+        <v>2030</v>
       </c>
       <c r="D111">
-        <v>829</v>
-      </c>
-      <c r="G111" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1460</v>
+        <v>1499</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D112">
-        <v>829</v>
-      </c>
-      <c r="G112" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1460</v>
+        <v>1499</v>
       </c>
       <c r="B113" t="s">
         <v>9</v>
       </c>
       <c r="C113">
-        <v>700</v>
+        <v>2030</v>
       </c>
       <c r="D113">
-        <v>829</v>
-      </c>
-      <c r="G113" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1462</v>
+        <v>1501</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D114">
-        <v>829</v>
-      </c>
-      <c r="G114" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1462</v>
+        <v>1501</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D115">
-        <v>829</v>
-      </c>
-      <c r="G115" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>1465</v>
+        <v>1509</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>915</v>
+        <v>1215</v>
       </c>
       <c r="D116">
-        <v>1044</v>
-      </c>
-      <c r="G116" t="s">
-        <v>6</v>
+        <v>1344</v>
       </c>
       <c r="H116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1465</v>
+        <v>1509</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117">
-        <v>1000</v>
+        <v>1215</v>
       </c>
       <c r="D117">
-        <v>1129</v>
-      </c>
-      <c r="G117" t="s">
-        <v>6</v>
+        <v>1344</v>
       </c>
       <c r="H117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>1469</v>
+        <v>16372</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
       <c r="C118">
-        <v>1345</v>
+        <v>1000</v>
       </c>
       <c r="D118">
-        <v>1514</v>
-      </c>
-      <c r="G118" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H118" t="s">
         <v>11</v>
@@ -3275,19 +2921,16 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1469</v>
+        <v>16372</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>1345</v>
+        <v>1000</v>
       </c>
       <c r="D119">
-        <v>1514</v>
-      </c>
-      <c r="G119" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H119" t="s">
         <v>11</v>
@@ -3295,19 +2938,16 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>1474</v>
+        <v>16374</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>1645</v>
+        <v>700</v>
       </c>
       <c r="D120">
-        <v>1814</v>
-      </c>
-      <c r="G120" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H120" t="s">
         <v>11</v>
@@ -3315,19 +2955,16 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1474</v>
+        <v>16374</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>1515</v>
+        <v>700</v>
       </c>
       <c r="D121">
-        <v>1644</v>
-      </c>
-      <c r="G121" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H121" t="s">
         <v>11</v>
@@ -3335,19 +2972,16 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1477</v>
+        <v>16376</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D122">
-        <v>1944</v>
-      </c>
-      <c r="G122" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H122" t="s">
         <v>11</v>
@@ -3355,19 +2989,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1477</v>
+        <v>16376</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C123">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D123">
-        <v>1944</v>
-      </c>
-      <c r="G123" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H123" t="s">
         <v>11</v>
@@ -3375,19 +3006,16 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>1479</v>
+        <v>16377</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C124">
-        <v>1815</v>
+        <v>1130</v>
       </c>
       <c r="D124">
-        <v>1944</v>
-      </c>
-      <c r="G124" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H124" t="s">
         <v>11</v>
@@ -3395,19 +3023,16 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1479</v>
+        <v>16377</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C125">
-        <v>1815</v>
+        <v>1130</v>
       </c>
       <c r="D125">
-        <v>1944</v>
-      </c>
-      <c r="G125" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H125" t="s">
         <v>11</v>
@@ -3415,19 +3040,16 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1481</v>
+        <v>16378</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C126">
-        <v>1815</v>
+        <v>700</v>
       </c>
       <c r="D126">
-        <v>1944</v>
-      </c>
-      <c r="G126" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H126" t="s">
         <v>11</v>
@@ -3435,19 +3057,16 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1481</v>
+        <v>16378</v>
       </c>
       <c r="B127" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C127">
-        <v>2030</v>
+        <v>700</v>
       </c>
       <c r="D127">
-        <v>2159</v>
-      </c>
-      <c r="G127" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H127" t="s">
         <v>11</v>
@@ -3455,19 +3074,16 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1483</v>
+        <v>16379</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C128">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D128">
-        <v>2159</v>
-      </c>
-      <c r="G128" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H128" t="s">
         <v>11</v>
@@ -3475,19 +3091,16 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1483</v>
+        <v>16379</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C129">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D129">
-        <v>2159</v>
-      </c>
-      <c r="G129" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H129" t="s">
         <v>11</v>
@@ -3495,19 +3108,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>1484</v>
+        <v>16383</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C130">
-        <v>2030</v>
+        <v>1000</v>
       </c>
       <c r="D130">
-        <v>2159</v>
-      </c>
-      <c r="G130" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H130" t="s">
         <v>11</v>
@@ -3515,19 +3125,16 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1484</v>
+        <v>16383</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C131">
-        <v>2030</v>
+        <v>1130</v>
       </c>
       <c r="D131">
-        <v>2159</v>
-      </c>
-      <c r="G131" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H131" t="s">
         <v>11</v>
@@ -3535,19 +3142,16 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1486</v>
+        <v>16394</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>915</v>
+        <v>1815</v>
       </c>
       <c r="D132">
-        <v>1044</v>
-      </c>
-      <c r="G132" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H132" t="s">
         <v>11</v>
@@ -3555,7 +3159,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1486</v>
+        <v>16394</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -3566,28 +3170,22 @@
       <c r="D133">
         <v>1944</v>
       </c>
-      <c r="G133" t="s">
-        <v>6</v>
-      </c>
       <c r="H133" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1489</v>
+        <v>16395</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C134">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D134">
-        <v>1944</v>
-      </c>
-      <c r="G134" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H134" t="s">
         <v>11</v>
@@ -3595,19 +3193,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1489</v>
+        <v>16395</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
       </c>
       <c r="C135">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D135">
-        <v>1944</v>
-      </c>
-      <c r="G135" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H135" t="s">
         <v>11</v>
@@ -3615,10 +3210,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>1496</v>
+        <v>16396</v>
       </c>
       <c r="B136" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C136">
         <v>1815</v>
@@ -3626,28 +3221,22 @@
       <c r="D136">
         <v>1944</v>
       </c>
-      <c r="G136" t="s">
-        <v>6</v>
-      </c>
       <c r="H136" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1496</v>
+        <v>16396</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>2030</v>
+        <v>1815</v>
       </c>
       <c r="D137">
-        <v>2159</v>
-      </c>
-      <c r="G137" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H137" t="s">
         <v>11</v>
@@ -3655,19 +3244,16 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>1499</v>
+        <v>16397</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D138">
-        <v>1944</v>
-      </c>
-      <c r="G138" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H138" t="s">
         <v>11</v>
@@ -3675,10 +3261,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1499</v>
+        <v>16397</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C139">
         <v>2030</v>
@@ -3686,28 +3272,22 @@
       <c r="D139">
         <v>2159</v>
       </c>
-      <c r="G139" t="s">
-        <v>6</v>
-      </c>
       <c r="H139" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1501</v>
+        <v>16401</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140">
-        <v>1815</v>
+        <v>1130</v>
       </c>
       <c r="D140">
-        <v>1944</v>
-      </c>
-      <c r="G140" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H140" t="s">
         <v>11</v>
@@ -3715,19 +3295,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>1501</v>
+        <v>16401</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C141">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D141">
-        <v>1944</v>
-      </c>
-      <c r="G141" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H141" t="s">
         <v>11</v>
@@ -3735,50 +3312,44 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1509</v>
+        <v>16404</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>1215</v>
+        <v>700</v>
       </c>
       <c r="D142">
-        <v>1344</v>
-      </c>
-      <c r="G142" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1509</v>
+        <v>16404</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>1215</v>
+        <v>700</v>
       </c>
       <c r="D143">
-        <v>1344</v>
-      </c>
-      <c r="G143" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>10984</v>
+        <v>16405</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144">
         <v>700</v>
@@ -3786,28 +3357,22 @@
       <c r="D144">
         <v>829</v>
       </c>
-      <c r="G144" t="s">
-        <v>6</v>
-      </c>
       <c r="H144" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>10984</v>
+        <v>16405</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="D145">
-        <v>829</v>
-      </c>
-      <c r="G145" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H145" t="s">
         <v>12</v>
@@ -3815,30 +3380,27 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>10985</v>
+        <v>16406</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C146">
-        <v>1215</v>
+        <v>1000</v>
       </c>
       <c r="D146">
-        <v>1344</v>
-      </c>
-      <c r="G146" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>10985</v>
+        <v>16406</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C147">
         <v>1215</v>
@@ -3846,28 +3408,22 @@
       <c r="D147">
         <v>1344</v>
       </c>
-      <c r="G147" t="s">
-        <v>6</v>
-      </c>
       <c r="H147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>16372</v>
+        <v>16418</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C148">
-        <v>1000</v>
+        <v>2030</v>
       </c>
       <c r="D148">
-        <v>1129</v>
-      </c>
-      <c r="G148" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H148" t="s">
         <v>12</v>
@@ -3875,19 +3431,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>16372</v>
+        <v>16418</v>
       </c>
       <c r="B149" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C149">
-        <v>1000</v>
+        <v>2030</v>
       </c>
       <c r="D149">
-        <v>1129</v>
-      </c>
-      <c r="G149" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
@@ -3895,7 +3448,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>16374</v>
+        <v>16721</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -3906,59 +3459,50 @@
       <c r="D150">
         <v>829</v>
       </c>
-      <c r="G150" t="s">
-        <v>6</v>
-      </c>
       <c r="H150" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>16374</v>
+        <v>16721</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C151">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D151">
-        <v>829</v>
-      </c>
-      <c r="G151" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H151" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>16376</v>
+        <v>16722</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
       <c r="C152">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="D152">
-        <v>1129</v>
-      </c>
-      <c r="G152" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H152" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>16376</v>
+        <v>16722</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153">
         <v>1000</v>
@@ -3966,19 +3510,16 @@
       <c r="D153">
         <v>1129</v>
       </c>
-      <c r="G153" t="s">
-        <v>6</v>
-      </c>
       <c r="H153" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>16377</v>
+        <v>18856</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154">
         <v>1130</v>
@@ -3986,28 +3527,22 @@
       <c r="D154">
         <v>1259</v>
       </c>
-      <c r="G154" t="s">
-        <v>6</v>
-      </c>
       <c r="H154" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>16377</v>
+        <v>18856</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>1130</v>
+        <v>1215</v>
       </c>
       <c r="D155">
-        <v>1259</v>
-      </c>
-      <c r="G155" t="s">
-        <v>6</v>
+        <v>1344</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
@@ -4015,19 +3550,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>16378</v>
+        <v>18859</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
       </c>
       <c r="C156">
-        <v>700</v>
+        <v>830</v>
       </c>
       <c r="D156">
-        <v>829</v>
-      </c>
-      <c r="G156" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
@@ -4035,19 +3567,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>16378</v>
+        <v>18859</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
       </c>
       <c r="C157">
-        <v>700</v>
+        <v>1130</v>
       </c>
       <c r="D157">
-        <v>829</v>
-      </c>
-      <c r="G157" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H157" t="s">
         <v>12</v>
@@ -4055,19 +3584,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>16379</v>
+        <v>18862</v>
       </c>
       <c r="B158" t="s">
         <v>9</v>
       </c>
       <c r="C158">
-        <v>830</v>
+        <v>1645</v>
       </c>
       <c r="D158">
-        <v>959</v>
-      </c>
-      <c r="G158" t="s">
-        <v>6</v>
+        <v>1814</v>
       </c>
       <c r="H158" t="s">
         <v>12</v>
@@ -4075,19 +3601,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>16379</v>
+        <v>18862</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
       <c r="C159">
-        <v>830</v>
+        <v>1645</v>
       </c>
       <c r="D159">
-        <v>959</v>
-      </c>
-      <c r="G159" t="s">
-        <v>6</v>
+        <v>1814</v>
       </c>
       <c r="H159" t="s">
         <v>12</v>
@@ -4095,19 +3618,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>16383</v>
+        <v>18863</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C160">
-        <v>1130</v>
+        <v>1345</v>
       </c>
       <c r="D160">
-        <v>1259</v>
-      </c>
-      <c r="G160" t="s">
-        <v>6</v>
+        <v>1514</v>
       </c>
       <c r="H160" t="s">
         <v>12</v>
@@ -4115,19 +3635,16 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>16383</v>
+        <v>18863</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>1000</v>
+        <v>1430</v>
       </c>
       <c r="D161">
-        <v>1129</v>
-      </c>
-      <c r="G161" t="s">
-        <v>6</v>
+        <v>1559</v>
       </c>
       <c r="H161" t="s">
         <v>12</v>
@@ -4135,7 +3652,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>16394</v>
+        <v>18864</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
@@ -4146,28 +3663,22 @@
       <c r="D162">
         <v>1944</v>
       </c>
-      <c r="G162" t="s">
-        <v>6</v>
-      </c>
       <c r="H162" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>16394</v>
+        <v>18864</v>
       </c>
       <c r="B163" t="s">
         <v>9</v>
       </c>
       <c r="C163">
-        <v>1815</v>
+        <v>1945</v>
       </c>
       <c r="D163">
-        <v>1944</v>
-      </c>
-      <c r="G163" t="s">
-        <v>6</v>
+        <v>2114</v>
       </c>
       <c r="H163" t="s">
         <v>12</v>
@@ -4175,50 +3686,44 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>16395</v>
+        <v>18873</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>2030</v>
+        <v>915</v>
       </c>
       <c r="D164">
-        <v>2159</v>
-      </c>
-      <c r="G164" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>16395</v>
+        <v>18873</v>
       </c>
       <c r="B165" t="s">
         <v>9</v>
       </c>
       <c r="C165">
-        <v>2030</v>
+        <v>1130</v>
       </c>
       <c r="D165">
-        <v>2159</v>
-      </c>
-      <c r="G165" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H165" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>16396</v>
+        <v>18874</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166">
         <v>1815</v>
@@ -4226,99 +3731,84 @@
       <c r="D166">
         <v>1944</v>
       </c>
-      <c r="G166" t="s">
-        <v>6</v>
-      </c>
       <c r="H166" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>16396</v>
+        <v>18874</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D167">
-        <v>1944</v>
-      </c>
-      <c r="G167" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H167" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>16397</v>
+        <v>18875</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168">
-        <v>2030</v>
+        <v>1815</v>
       </c>
       <c r="D168">
-        <v>2159</v>
-      </c>
-      <c r="G168" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H168" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>16397</v>
+        <v>18875</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C169">
-        <v>2030</v>
+        <v>1945</v>
       </c>
       <c r="D169">
-        <v>2159</v>
-      </c>
-      <c r="G169" t="s">
-        <v>6</v>
+        <v>2114</v>
       </c>
       <c r="H169" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>16401</v>
+        <v>18876</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170">
-        <v>1130</v>
+        <v>2030</v>
       </c>
       <c r="D170">
-        <v>1259</v>
-      </c>
-      <c r="G170" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H170" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>16401</v>
+        <v>18876</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171">
         <v>2030</v>
@@ -4326,59 +3816,50 @@
       <c r="D171">
         <v>2159</v>
       </c>
-      <c r="G171" t="s">
-        <v>6</v>
-      </c>
       <c r="H171" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>16404</v>
+        <v>18877</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172">
-        <v>700</v>
+        <v>1130</v>
       </c>
       <c r="D172">
-        <v>829</v>
-      </c>
-      <c r="G172" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>16404</v>
+        <v>18877</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D173">
-        <v>829</v>
-      </c>
-      <c r="G173" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>16405</v>
+        <v>20004</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174">
         <v>700</v>
@@ -4386,128 +3867,107 @@
       <c r="D174">
         <v>829</v>
       </c>
-      <c r="G174" t="s">
-        <v>6</v>
-      </c>
       <c r="H174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>16405</v>
+        <v>20004</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D175">
-        <v>959</v>
-      </c>
-      <c r="G175" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>16406</v>
+        <v>20047</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176">
-        <v>1215</v>
+        <v>1430</v>
       </c>
       <c r="D176">
-        <v>1344</v>
-      </c>
-      <c r="G176" t="s">
-        <v>6</v>
+        <v>1559</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>16406</v>
+        <v>20047</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177">
-        <v>1000</v>
+        <v>1430</v>
       </c>
       <c r="D177">
-        <v>1129</v>
-      </c>
-      <c r="G177" t="s">
-        <v>6</v>
+        <v>1559</v>
       </c>
       <c r="H177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>16418</v>
+        <v>20088</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
       </c>
       <c r="C178">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D178">
-        <v>2159</v>
-      </c>
-      <c r="G178" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>16418</v>
+        <v>20088</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
       <c r="C179">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D179">
-        <v>2159</v>
-      </c>
-      <c r="G179" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>16721</v>
+        <v>20089</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C180">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D180">
-        <v>1129</v>
-      </c>
-      <c r="G180" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H180" t="s">
         <v>11</v>
@@ -4515,19 +3975,16 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>16721</v>
+        <v>20089</v>
       </c>
       <c r="B181" t="s">
         <v>9</v>
       </c>
       <c r="C181">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D181">
-        <v>829</v>
-      </c>
-      <c r="G181" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H181" t="s">
         <v>11</v>
@@ -4535,19 +3992,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>16722</v>
+        <v>20090</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182">
-        <v>830</v>
+        <v>1945</v>
       </c>
       <c r="D182">
-        <v>959</v>
-      </c>
-      <c r="G182" t="s">
-        <v>6</v>
+        <v>2114</v>
       </c>
       <c r="H182" t="s">
         <v>11</v>
@@ -4555,19 +4009,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>16722</v>
+        <v>20090</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C183">
-        <v>1000</v>
+        <v>2030</v>
       </c>
       <c r="D183">
-        <v>1129</v>
-      </c>
-      <c r="G183" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H183" t="s">
         <v>11</v>
@@ -4575,219 +4026,186 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>18856</v>
+        <v>20096</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C184">
-        <v>1215</v>
+        <v>1430</v>
       </c>
       <c r="D184">
-        <v>1344</v>
-      </c>
-      <c r="G184" t="s">
-        <v>6</v>
+        <v>1559</v>
       </c>
       <c r="H184" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>18856</v>
+        <v>20096</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185">
-        <v>1130</v>
+        <v>1600</v>
       </c>
       <c r="D185">
-        <v>1259</v>
-      </c>
-      <c r="G185" t="s">
-        <v>6</v>
+        <v>1729</v>
       </c>
       <c r="H185" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>18859</v>
+        <v>20097</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C186">
-        <v>1130</v>
+        <v>1815</v>
       </c>
       <c r="D186">
-        <v>1259</v>
-      </c>
-      <c r="G186" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H186" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>18859</v>
+        <v>20097</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C187">
-        <v>830</v>
+        <v>1815</v>
       </c>
       <c r="D187">
-        <v>959</v>
-      </c>
-      <c r="G187" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H187" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>18862</v>
+        <v>20098</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C188">
-        <v>1645</v>
+        <v>1515</v>
       </c>
       <c r="D188">
-        <v>1814</v>
-      </c>
-      <c r="G188" t="s">
-        <v>6</v>
+        <v>1644</v>
       </c>
       <c r="H188" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>18862</v>
+        <v>21169</v>
       </c>
       <c r="B189" t="s">
         <v>9</v>
       </c>
       <c r="C189">
-        <v>1645</v>
+        <v>1000</v>
       </c>
       <c r="D189">
-        <v>1814</v>
-      </c>
-      <c r="G189" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>18863</v>
+        <v>21169</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C190">
-        <v>1430</v>
+        <v>1130</v>
       </c>
       <c r="D190">
-        <v>1559</v>
-      </c>
-      <c r="G190" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>18863</v>
+        <v>21170</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191">
-        <v>1345</v>
+        <v>830</v>
       </c>
       <c r="D191">
-        <v>1514</v>
-      </c>
-      <c r="G191" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>18864</v>
+        <v>21170</v>
       </c>
       <c r="B192" t="s">
         <v>4</v>
       </c>
       <c r="C192">
-        <v>1815</v>
+        <v>915</v>
       </c>
       <c r="D192">
-        <v>1944</v>
-      </c>
-      <c r="G192" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>18864</v>
+        <v>21171</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C193">
-        <v>1945</v>
+        <v>700</v>
       </c>
       <c r="D193">
-        <v>2114</v>
-      </c>
-      <c r="G193" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>18873</v>
+        <v>21171</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194">
-        <v>915</v>
+        <v>700</v>
       </c>
       <c r="D194">
-        <v>1044</v>
-      </c>
-      <c r="G194" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H194" t="s">
         <v>11</v>
@@ -4795,19 +4213,16 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>18873</v>
+        <v>21172</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C195">
-        <v>1130</v>
+        <v>830</v>
       </c>
       <c r="D195">
-        <v>1259</v>
-      </c>
-      <c r="G195" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H195" t="s">
         <v>11</v>
@@ -4815,19 +4230,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>18874</v>
+        <v>21172</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C196">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D196">
-        <v>2159</v>
-      </c>
-      <c r="G196" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H196" t="s">
         <v>11</v>
@@ -4835,19 +4247,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>18874</v>
+        <v>21173</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C197">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D197">
-        <v>1944</v>
-      </c>
-      <c r="G197" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H197" t="s">
         <v>11</v>
@@ -4855,19 +4264,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>18875</v>
+        <v>21173</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198">
-        <v>1815</v>
+        <v>1000</v>
       </c>
       <c r="D198">
-        <v>1944</v>
-      </c>
-      <c r="G198" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H198" t="s">
         <v>11</v>
@@ -4875,19 +4281,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>18875</v>
+        <v>21174</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C199">
-        <v>1945</v>
+        <v>1130</v>
       </c>
       <c r="D199">
-        <v>2114</v>
-      </c>
-      <c r="G199" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H199" t="s">
         <v>11</v>
@@ -4895,19 +4298,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>18876</v>
+        <v>21174</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200">
-        <v>2030</v>
+        <v>1130</v>
       </c>
       <c r="D200">
-        <v>2159</v>
-      </c>
-      <c r="G200" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H200" t="s">
         <v>11</v>
@@ -4915,19 +4315,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>18876</v>
+        <v>21175</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C201">
-        <v>2030</v>
+        <v>830</v>
       </c>
       <c r="D201">
-        <v>2159</v>
-      </c>
-      <c r="G201" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H201" t="s">
         <v>11</v>
@@ -4935,19 +4332,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>18877</v>
+        <v>21175</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
       </c>
       <c r="C202">
-        <v>1815</v>
+        <v>830</v>
       </c>
       <c r="D202">
-        <v>1944</v>
-      </c>
-      <c r="G202" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H202" t="s">
         <v>11</v>
@@ -4955,19 +4349,16 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>18877</v>
+        <v>21176</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C203">
-        <v>1130</v>
+        <v>915</v>
       </c>
       <c r="D203">
-        <v>1259</v>
-      </c>
-      <c r="G203" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H203" t="s">
         <v>11</v>
@@ -4975,90 +4366,78 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>20004</v>
+        <v>21176</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204">
-        <v>700</v>
+        <v>915</v>
       </c>
       <c r="D204">
-        <v>829</v>
-      </c>
-      <c r="G204" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>20004</v>
+        <v>21177</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205">
-        <v>700</v>
+        <v>1130</v>
       </c>
       <c r="D205">
-        <v>829</v>
-      </c>
-      <c r="G205" t="s">
-        <v>6</v>
+        <v>1259</v>
       </c>
       <c r="H205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>20047</v>
+        <v>21177</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206">
-        <v>1430</v>
+        <v>1215</v>
       </c>
       <c r="D206">
-        <v>1559</v>
-      </c>
-      <c r="G206" t="s">
-        <v>6</v>
+        <v>1344</v>
       </c>
       <c r="H206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>20047</v>
+        <v>21178</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>1430</v>
+        <v>745</v>
       </c>
       <c r="D207">
-        <v>1559</v>
-      </c>
-      <c r="G207" t="s">
-        <v>6</v>
+        <v>914</v>
       </c>
       <c r="H207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>20088</v>
+        <v>21178</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C208">
         <v>830</v>
@@ -5066,128 +4445,107 @@
       <c r="D208">
         <v>959</v>
       </c>
-      <c r="G208" t="s">
-        <v>6</v>
-      </c>
       <c r="H208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>20088</v>
+        <v>21179</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209">
-        <v>830</v>
+        <v>1345</v>
       </c>
       <c r="D209">
-        <v>959</v>
-      </c>
-      <c r="G209" t="s">
-        <v>6</v>
+        <v>1514</v>
       </c>
       <c r="H209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>20089</v>
+        <v>21179</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C210">
-        <v>1815</v>
+        <v>1345</v>
       </c>
       <c r="D210">
-        <v>1944</v>
-      </c>
-      <c r="G210" t="s">
-        <v>6</v>
+        <v>1514</v>
       </c>
       <c r="H210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>20089</v>
+        <v>21180</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211">
-        <v>1815</v>
+        <v>1515</v>
       </c>
       <c r="D211">
-        <v>1944</v>
-      </c>
-      <c r="G211" t="s">
-        <v>6</v>
+        <v>1644</v>
       </c>
       <c r="H211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>20090</v>
+        <v>21180</v>
       </c>
       <c r="B212" t="s">
         <v>8</v>
       </c>
       <c r="C212">
-        <v>1945</v>
+        <v>1515</v>
       </c>
       <c r="D212">
-        <v>2114</v>
-      </c>
-      <c r="G212" t="s">
-        <v>6</v>
+        <v>1644</v>
       </c>
       <c r="H212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>20090</v>
+        <v>21181</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C213">
-        <v>2030</v>
+        <v>1515</v>
       </c>
       <c r="D213">
-        <v>2159</v>
-      </c>
-      <c r="G213" t="s">
-        <v>6</v>
+        <v>1644</v>
       </c>
       <c r="H213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>20096</v>
+        <v>21181</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>1430</v>
+        <v>1600</v>
       </c>
       <c r="D214">
-        <v>1559</v>
-      </c>
-      <c r="G214" t="s">
-        <v>6</v>
+        <v>1729</v>
       </c>
       <c r="H214" t="s">
         <v>11</v>
@@ -5195,130 +4553,112 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>20096</v>
+        <v>21185</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C215">
-        <v>1600</v>
+        <v>830</v>
       </c>
       <c r="D215">
-        <v>1729</v>
-      </c>
-      <c r="G215" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>20097</v>
+        <v>21185</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C216">
-        <v>1815</v>
+        <v>830</v>
       </c>
       <c r="D216">
-        <v>1944</v>
-      </c>
-      <c r="G216" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>20097</v>
+        <v>21186</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217">
-        <v>1815</v>
+        <v>1045</v>
       </c>
       <c r="D217">
-        <v>1944</v>
-      </c>
-      <c r="G217" t="s">
-        <v>6</v>
+        <v>1214</v>
       </c>
       <c r="H217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>20098</v>
+        <v>21186</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C218">
-        <v>1515</v>
+        <v>1045</v>
       </c>
       <c r="D218">
-        <v>1644</v>
-      </c>
-      <c r="G218" t="s">
-        <v>6</v>
+        <v>1214</v>
       </c>
       <c r="H218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>21169</v>
+        <v>21187</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C219">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D219">
-        <v>1129</v>
-      </c>
-      <c r="G219" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H219" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>21169</v>
+        <v>21187</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220">
-        <v>1130</v>
+        <v>700</v>
       </c>
       <c r="D220">
-        <v>1259</v>
-      </c>
-      <c r="G220" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H220" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>21170</v>
+        <v>21188</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C221">
         <v>830</v>
@@ -5326,488 +4666,413 @@
       <c r="D221">
         <v>959</v>
       </c>
-      <c r="G221" t="s">
-        <v>6</v>
-      </c>
       <c r="H221" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>21170</v>
+        <v>21188</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C222">
-        <v>915</v>
+        <v>830</v>
       </c>
       <c r="D222">
-        <v>1044</v>
-      </c>
-      <c r="G222" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H222" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>21171</v>
+        <v>21189</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D223">
-        <v>829</v>
-      </c>
-      <c r="G223" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H223" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>21171</v>
+        <v>21189</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D224">
-        <v>829</v>
-      </c>
-      <c r="G224" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H224" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>21172</v>
+        <v>21190</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225">
-        <v>830</v>
+        <v>1430</v>
       </c>
       <c r="D225">
-        <v>959</v>
-      </c>
-      <c r="G225" t="s">
-        <v>6</v>
+        <v>1559</v>
       </c>
       <c r="H225" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>21172</v>
+        <v>21190</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C226">
-        <v>830</v>
+        <v>1430</v>
       </c>
       <c r="D226">
-        <v>959</v>
-      </c>
-      <c r="G226" t="s">
-        <v>6</v>
+        <v>1559</v>
       </c>
       <c r="H226" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>21173</v>
+        <v>21191</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
       </c>
       <c r="C227">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D227">
-        <v>1129</v>
-      </c>
-      <c r="G227" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H227" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>21173</v>
+        <v>21191</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C228">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D228">
-        <v>1129</v>
-      </c>
-      <c r="G228" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H228" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>21174</v>
+        <v>21559</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C229">
-        <v>1130</v>
+        <v>1815</v>
       </c>
       <c r="D229">
-        <v>1259</v>
-      </c>
-      <c r="G229" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>21174</v>
+        <v>21559</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230">
-        <v>1130</v>
+        <v>1815</v>
       </c>
       <c r="D230">
-        <v>1259</v>
-      </c>
-      <c r="G230" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>21175</v>
+        <v>21560</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C231">
-        <v>830</v>
+        <v>1815</v>
       </c>
       <c r="D231">
-        <v>959</v>
-      </c>
-      <c r="G231" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>21175</v>
+        <v>21560</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C232">
-        <v>830</v>
+        <v>2030</v>
       </c>
       <c r="D232">
-        <v>959</v>
-      </c>
-      <c r="G232" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>21176</v>
+        <v>21561</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C233">
-        <v>915</v>
+        <v>1000</v>
       </c>
       <c r="D233">
-        <v>1044</v>
-      </c>
-      <c r="G233" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H233" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>21176</v>
+        <v>21561</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C234">
-        <v>915</v>
+        <v>1945</v>
       </c>
       <c r="D234">
-        <v>1044</v>
-      </c>
-      <c r="G234" t="s">
-        <v>6</v>
+        <v>2114</v>
       </c>
       <c r="H234" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>21177</v>
+        <v>774</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C235">
-        <v>1215</v>
+        <v>915</v>
       </c>
       <c r="D235">
-        <v>1344</v>
-      </c>
-      <c r="G235" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>21177</v>
+        <v>774</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C236">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="D236">
-        <v>1259</v>
-      </c>
-      <c r="G236" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>21178</v>
+        <v>783</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C237">
-        <v>830</v>
+        <v>700</v>
       </c>
       <c r="D237">
-        <v>959</v>
-      </c>
-      <c r="G237" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>21178</v>
+        <v>783</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C238">
-        <v>745</v>
+        <v>1000</v>
       </c>
       <c r="D238">
-        <v>914</v>
-      </c>
-      <c r="G238" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>21179</v>
+        <v>790</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C239">
-        <v>1345</v>
+        <v>700</v>
       </c>
       <c r="D239">
-        <v>1514</v>
-      </c>
-      <c r="G239" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>21179</v>
+        <v>790</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C240">
-        <v>1345</v>
+        <v>1000</v>
       </c>
       <c r="D240">
-        <v>1514</v>
-      </c>
-      <c r="G240" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>21180</v>
+        <v>793</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C241">
-        <v>1515</v>
+        <v>915</v>
       </c>
       <c r="D241">
-        <v>1644</v>
-      </c>
-      <c r="G241" t="s">
-        <v>6</v>
+        <v>1044</v>
       </c>
       <c r="H241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>21180</v>
+        <v>793</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C242">
-        <v>1515</v>
+        <v>1000</v>
       </c>
       <c r="D242">
-        <v>1644</v>
-      </c>
-      <c r="G242" t="s">
-        <v>6</v>
+        <v>1129</v>
       </c>
       <c r="H242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>21181</v>
+        <v>795</v>
       </c>
       <c r="B243" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C243">
-        <v>1515</v>
+        <v>700</v>
       </c>
       <c r="D243">
-        <v>1644</v>
-      </c>
-      <c r="G243" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
       <c r="H243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>21181</v>
+        <v>795</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C244">
-        <v>1600</v>
+        <v>1045</v>
       </c>
       <c r="D244">
-        <v>1729</v>
-      </c>
-      <c r="G244" t="s">
-        <v>6</v>
+        <v>1214</v>
       </c>
       <c r="H244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>21185</v>
+        <v>803</v>
       </c>
       <c r="B245" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C245">
-        <v>830</v>
+        <v>1045</v>
       </c>
       <c r="D245">
-        <v>959</v>
-      </c>
-      <c r="G245" t="s">
-        <v>6</v>
+        <v>1214</v>
       </c>
       <c r="H245" t="s">
         <v>11</v>
@@ -5815,19 +5080,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>21185</v>
+        <v>803</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246">
-        <v>830</v>
+        <v>1815</v>
       </c>
       <c r="D246">
-        <v>959</v>
-      </c>
-      <c r="G246" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H246" t="s">
         <v>11</v>
@@ -5835,19 +5097,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>21186</v>
+        <v>809</v>
       </c>
       <c r="B247" t="s">
         <v>9</v>
       </c>
       <c r="C247">
-        <v>1045</v>
+        <v>1815</v>
       </c>
       <c r="D247">
-        <v>1214</v>
-      </c>
-      <c r="G247" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H247" t="s">
         <v>11</v>
@@ -5855,19 +5114,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>21186</v>
+        <v>809</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C248">
-        <v>1045</v>
+        <v>1815</v>
       </c>
       <c r="D248">
-        <v>1214</v>
-      </c>
-      <c r="G248" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H248" t="s">
         <v>11</v>
@@ -5875,19 +5131,16 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>21187</v>
+        <v>812</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C249">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D249">
-        <v>829</v>
-      </c>
-      <c r="G249" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H249" t="s">
         <v>11</v>
@@ -5895,19 +5148,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>21187</v>
+        <v>812</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C250">
-        <v>700</v>
+        <v>1815</v>
       </c>
       <c r="D250">
-        <v>829</v>
-      </c>
-      <c r="G250" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H250" t="s">
         <v>11</v>
@@ -5915,19 +5165,16 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>21188</v>
+        <v>829</v>
       </c>
       <c r="B251" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C251">
-        <v>830</v>
+        <v>1815</v>
       </c>
       <c r="D251">
-        <v>959</v>
-      </c>
-      <c r="G251" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H251" t="s">
         <v>11</v>
@@ -5935,19 +5182,16 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>21188</v>
+        <v>829</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C252">
-        <v>830</v>
+        <v>1815</v>
       </c>
       <c r="D252">
-        <v>959</v>
-      </c>
-      <c r="G252" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H252" t="s">
         <v>11</v>
@@ -5955,19 +5199,16 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>21189</v>
+        <v>838</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C253">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D253">
-        <v>1129</v>
-      </c>
-      <c r="G253" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H253" t="s">
         <v>11</v>
@@ -5975,19 +5216,16 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>21189</v>
+        <v>838</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C254">
-        <v>1000</v>
+        <v>1815</v>
       </c>
       <c r="D254">
-        <v>1129</v>
-      </c>
-      <c r="G254" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H254" t="s">
         <v>11</v>
@@ -5995,19 +5233,16 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>21190</v>
+        <v>842</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C255">
-        <v>1430</v>
+        <v>1815</v>
       </c>
       <c r="D255">
-        <v>1559</v>
-      </c>
-      <c r="G255" t="s">
-        <v>6</v>
+        <v>1944</v>
       </c>
       <c r="H255" t="s">
         <v>11</v>
@@ -6015,19 +5250,16 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>21190</v>
+        <v>842</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256">
-        <v>1430</v>
+        <v>2030</v>
       </c>
       <c r="D256">
-        <v>1559</v>
-      </c>
-      <c r="G256" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H256" t="s">
         <v>11</v>
@@ -6035,19 +5267,16 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>21191</v>
+        <v>848</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C257">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D257">
-        <v>1944</v>
-      </c>
-      <c r="G257" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H257" t="s">
         <v>11</v>
@@ -6055,19 +5284,16 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>21191</v>
+        <v>848</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C258">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D258">
-        <v>1944</v>
-      </c>
-      <c r="G258" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H258" t="s">
         <v>11</v>
@@ -6075,110 +5301,95 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>21559</v>
+        <v>853</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
       </c>
       <c r="C259">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D259">
-        <v>1944</v>
-      </c>
-      <c r="G259" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>21559</v>
+        <v>853</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C260">
-        <v>1815</v>
+        <v>2030</v>
       </c>
       <c r="D260">
-        <v>1944</v>
-      </c>
-      <c r="G260" t="s">
-        <v>6</v>
+        <v>2159</v>
       </c>
       <c r="H260" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>21560</v>
+        <v>859</v>
       </c>
       <c r="B261" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C261">
-        <v>1815</v>
+        <v>1515</v>
       </c>
       <c r="D261">
-        <v>1944</v>
-      </c>
-      <c r="G261" t="s">
-        <v>6</v>
+        <v>1644</v>
       </c>
       <c r="H261" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>21560</v>
+        <v>859</v>
       </c>
       <c r="B262" t="s">
         <v>8</v>
       </c>
       <c r="C262">
-        <v>2030</v>
+        <v>1515</v>
       </c>
       <c r="D262">
-        <v>2159</v>
-      </c>
-      <c r="G262" t="s">
-        <v>6</v>
+        <v>1644</v>
       </c>
       <c r="H262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>21561</v>
+        <v>953</v>
       </c>
       <c r="B263" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C263">
-        <v>1945</v>
+        <v>830</v>
       </c>
       <c r="D263">
-        <v>2114</v>
-      </c>
-      <c r="G263" t="s">
-        <v>6</v>
+        <v>959</v>
       </c>
       <c r="H263" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>21561</v>
+        <v>953</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C264">
         <v>1000</v>
@@ -6186,31 +5397,28 @@
       <c r="D264">
         <v>1129</v>
       </c>
-      <c r="G264" t="s">
-        <v>6</v>
-      </c>
       <c r="H264" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
